--- a/2023-12-05_cookie.xlsx
+++ b/2023-12-05_cookie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02'!$C$1:$C$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2027,7 +2028,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2036,8 +2037,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2187,12 +2203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2520,141 +2542,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3016,39 +3047,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:11">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -3083,7 +3114,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -3118,7 +3149,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -3153,7 +3184,7 @@
       </c>
     </row>
     <row r="5" hidden="1" spans="1:11">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -3188,7 +3219,7 @@
       </c>
     </row>
     <row r="6" hidden="1" spans="1:11">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -3223,7 +3254,7 @@
       </c>
     </row>
     <row r="7" hidden="1" spans="1:11">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -3258,7 +3289,7 @@
       </c>
     </row>
     <row r="8" hidden="1" spans="1:11">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -3293,7 +3324,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -3328,7 +3359,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -3363,7 +3394,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
@@ -3398,7 +3429,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
@@ -3433,7 +3464,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
@@ -3468,7 +3499,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
@@ -3503,7 +3534,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
@@ -3538,7 +3569,7 @@
       </c>
     </row>
     <row r="16" hidden="1" spans="1:11">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
@@ -3573,7 +3604,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
@@ -3608,7 +3639,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
@@ -3643,7 +3674,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
@@ -3678,7 +3709,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
@@ -3713,7 +3744,7 @@
       </c>
     </row>
     <row r="21" hidden="1" spans="1:11">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
@@ -3748,7 +3779,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22">
@@ -3783,7 +3814,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
@@ -3818,7 +3849,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
@@ -3853,7 +3884,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
@@ -3888,7 +3919,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
@@ -3923,7 +3954,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27">
@@ -3958,7 +3989,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
@@ -3993,7 +4024,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
@@ -4028,7 +4059,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
@@ -4063,7 +4094,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31">
@@ -4098,7 +4129,7 @@
       </c>
     </row>
     <row r="32" hidden="1" spans="1:11">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32">
@@ -4133,7 +4164,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33">
@@ -4168,7 +4199,7 @@
       </c>
     </row>
     <row r="34" hidden="1" spans="1:11">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34">
@@ -4203,7 +4234,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35">
@@ -4238,7 +4269,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36">
@@ -4273,7 +4304,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37">
@@ -4308,7 +4339,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38">
@@ -4343,7 +4374,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39">
@@ -4378,7 +4409,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40">
@@ -4413,7 +4444,7 @@
       </c>
     </row>
     <row r="41" hidden="1" spans="1:11">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41">
@@ -4448,7 +4479,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42">
@@ -4483,7 +4514,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43">
@@ -4518,7 +4549,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44">
@@ -4553,13 +4584,12 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45">
         <v>196</v>
       </c>
-      <c r="C45"/>
       <c r="D45" t="s">
         <v>149</v>
       </c>
@@ -4586,7 +4616,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46">
@@ -4621,7 +4651,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47">
@@ -4656,7 +4686,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48">
@@ -4691,7 +4721,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49">
@@ -4726,7 +4756,7 @@
       </c>
     </row>
     <row r="50" hidden="1" spans="1:11">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50">
@@ -4761,7 +4791,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51">
@@ -4796,7 +4826,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52">
@@ -4831,7 +4861,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53">
@@ -4866,7 +4896,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54">
@@ -4901,7 +4931,7 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55">
@@ -4936,7 +4966,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56">
@@ -4971,7 +5001,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57">
@@ -5006,7 +5036,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58">
@@ -5041,7 +5071,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59">
@@ -5076,7 +5106,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60">
@@ -5111,7 +5141,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61">
@@ -5146,7 +5176,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62">
@@ -5181,7 +5211,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63">
@@ -5216,7 +5246,7 @@
       </c>
     </row>
     <row r="64" hidden="1" spans="1:11">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64">
@@ -5251,7 +5281,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65">
@@ -5286,7 +5316,7 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66">
@@ -5321,7 +5351,7 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67">
@@ -5356,7 +5386,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68">
@@ -5391,7 +5421,7 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69">
@@ -5426,7 +5456,7 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70">
@@ -5461,7 +5491,7 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71">
@@ -5496,7 +5526,7 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72">
@@ -5531,7 +5561,7 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73">
@@ -5566,7 +5596,7 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74">
@@ -5601,7 +5631,7 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75">
@@ -5636,7 +5666,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76">
@@ -5671,7 +5701,7 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77">
@@ -5706,7 +5736,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78">
@@ -5741,7 +5771,7 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79">
@@ -5776,7 +5806,7 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80">
@@ -5811,7 +5841,7 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81">
@@ -5846,7 +5876,7 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82">
@@ -5881,7 +5911,7 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83">
@@ -5916,7 +5946,7 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84">
@@ -5951,7 +5981,7 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85">
@@ -5986,7 +6016,7 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86">
@@ -6021,7 +6051,7 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87">
@@ -6056,7 +6086,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88">
@@ -6091,7 +6121,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89">
@@ -6126,7 +6156,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90">
@@ -6161,7 +6191,7 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91">
@@ -6196,7 +6226,7 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92">
@@ -6231,7 +6261,7 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93">
@@ -6266,7 +6296,7 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94">
@@ -6301,7 +6331,7 @@
       </c>
     </row>
     <row r="95" hidden="1" spans="1:11">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
       <c r="B95">
@@ -6336,7 +6366,7 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
       <c r="B96">
@@ -6371,7 +6401,7 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>95</v>
       </c>
       <c r="B97">
@@ -6406,7 +6436,7 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>96</v>
       </c>
       <c r="B98">
@@ -6441,7 +6471,7 @@
       </c>
     </row>
     <row r="99" hidden="1" spans="1:11">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
       <c r="B99">
@@ -6476,7 +6506,7 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100">
@@ -6511,7 +6541,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
       <c r="B101">
@@ -6546,7 +6576,7 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102">
@@ -6581,7 +6611,7 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>101</v>
       </c>
       <c r="B103">
@@ -6616,7 +6646,7 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104">
@@ -6651,7 +6681,7 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>103</v>
       </c>
       <c r="B105">
@@ -6686,7 +6716,7 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>104</v>
       </c>
       <c r="B106">
@@ -6721,7 +6751,7 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>105</v>
       </c>
       <c r="B107">
@@ -6756,7 +6786,7 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108">
@@ -6791,7 +6821,7 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>107</v>
       </c>
       <c r="B109">
@@ -6826,7 +6856,7 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>108</v>
       </c>
       <c r="B110">
@@ -6861,7 +6891,7 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>109</v>
       </c>
       <c r="B111">
@@ -6896,7 +6926,7 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112">
@@ -6931,7 +6961,7 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>111</v>
       </c>
       <c r="B113">
@@ -6966,7 +6996,7 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>112</v>
       </c>
       <c r="B114">
@@ -7001,7 +7031,7 @@
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>113</v>
       </c>
       <c r="B115">
@@ -7036,7 +7066,7 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>114</v>
       </c>
       <c r="B116">
@@ -7071,7 +7101,7 @@
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>115</v>
       </c>
       <c r="B117">
@@ -7106,7 +7136,7 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118">
@@ -7141,7 +7171,7 @@
       </c>
     </row>
     <row r="119" hidden="1" spans="1:11">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>117</v>
       </c>
       <c r="B119">
@@ -7176,7 +7206,7 @@
       </c>
     </row>
     <row r="120" hidden="1" spans="1:11">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120">
@@ -7211,7 +7241,7 @@
       </c>
     </row>
     <row r="121" hidden="1" spans="1:11">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>119</v>
       </c>
       <c r="B121">
@@ -7246,7 +7276,7 @@
       </c>
     </row>
     <row r="122" hidden="1" spans="1:11">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>120</v>
       </c>
       <c r="B122">
@@ -7281,7 +7311,7 @@
       </c>
     </row>
     <row r="123" hidden="1" spans="1:11">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>121</v>
       </c>
       <c r="B123">
@@ -7316,7 +7346,7 @@
       </c>
     </row>
     <row r="124" hidden="1" spans="1:11">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124">
@@ -7351,7 +7381,7 @@
       </c>
     </row>
     <row r="125" hidden="1" spans="1:11">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>123</v>
       </c>
       <c r="B125">
@@ -7386,7 +7416,7 @@
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>124</v>
       </c>
       <c r="B126">
@@ -7421,7 +7451,7 @@
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>125</v>
       </c>
       <c r="B127">
@@ -7456,7 +7486,7 @@
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128">
@@ -7491,7 +7521,7 @@
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>127</v>
       </c>
       <c r="B129">
@@ -7526,7 +7556,7 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130">
@@ -7561,7 +7591,7 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>129</v>
       </c>
       <c r="B131">
@@ -7596,7 +7626,7 @@
       </c>
     </row>
     <row r="132" hidden="1" spans="1:11">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>130</v>
       </c>
       <c r="B132">
@@ -7631,7 +7661,7 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>131</v>
       </c>
       <c r="B133">
@@ -7666,7 +7696,7 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134">
@@ -7701,7 +7731,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>133</v>
       </c>
       <c r="B135">
@@ -7736,7 +7766,7 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>134</v>
       </c>
       <c r="B136">
@@ -7771,7 +7801,7 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>135</v>
       </c>
       <c r="B137">
@@ -7806,7 +7836,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>136</v>
       </c>
       <c r="B138">
@@ -7841,7 +7871,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>137</v>
       </c>
       <c r="B139">
@@ -7876,7 +7906,7 @@
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>138</v>
       </c>
       <c r="B140">
@@ -7911,7 +7941,7 @@
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>139</v>
       </c>
       <c r="B141">
@@ -7946,7 +7976,7 @@
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>140</v>
       </c>
       <c r="B142">
@@ -7981,7 +8011,7 @@
       </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>141</v>
       </c>
       <c r="B143">
@@ -8016,7 +8046,7 @@
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>142</v>
       </c>
       <c r="B144">
@@ -8051,7 +8081,7 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>143</v>
       </c>
       <c r="B145">
@@ -8086,7 +8116,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>144</v>
       </c>
       <c r="B146">
@@ -8121,7 +8151,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>145</v>
       </c>
       <c r="B147">
@@ -8156,7 +8186,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>146</v>
       </c>
       <c r="B148">
@@ -8191,7 +8221,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>147</v>
       </c>
       <c r="B149">
@@ -8226,7 +8256,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>148</v>
       </c>
       <c r="B150">
@@ -8261,7 +8291,7 @@
       </c>
     </row>
     <row r="151" hidden="1" spans="1:11">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>149</v>
       </c>
       <c r="B151">
@@ -8296,7 +8326,7 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>150</v>
       </c>
       <c r="B152">
@@ -8331,7 +8361,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>151</v>
       </c>
       <c r="B153">
@@ -8366,7 +8396,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>152</v>
       </c>
       <c r="B154">
@@ -8401,7 +8431,7 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>153</v>
       </c>
       <c r="B155">
@@ -8436,7 +8466,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>154</v>
       </c>
       <c r="B156">
@@ -8471,7 +8501,7 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>155</v>
       </c>
       <c r="B157">
@@ -8506,7 +8536,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>156</v>
       </c>
       <c r="B158">
@@ -8541,7 +8571,7 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>157</v>
       </c>
       <c r="B159">
@@ -8576,7 +8606,7 @@
       </c>
     </row>
     <row r="160" hidden="1" spans="1:11">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>158</v>
       </c>
       <c r="B160">
@@ -8611,7 +8641,7 @@
       </c>
     </row>
     <row r="161" hidden="1" spans="1:11">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>159</v>
       </c>
       <c r="B161">
@@ -8646,7 +8676,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>160</v>
       </c>
       <c r="B162">
@@ -8681,7 +8711,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>161</v>
       </c>
       <c r="B163">
@@ -8716,7 +8746,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>162</v>
       </c>
       <c r="B164">
@@ -8751,7 +8781,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>163</v>
       </c>
       <c r="B165">
@@ -8786,7 +8816,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>164</v>
       </c>
       <c r="B166">
@@ -8821,7 +8851,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="1">
+      <c r="A167" s="2">
         <v>165</v>
       </c>
       <c r="B167">
@@ -8856,7 +8886,7 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>166</v>
       </c>
       <c r="B168">
@@ -8891,7 +8921,7 @@
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>167</v>
       </c>
       <c r="B169">
@@ -8926,7 +8956,7 @@
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>168</v>
       </c>
       <c r="B170">
@@ -8961,7 +8991,7 @@
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>169</v>
       </c>
       <c r="B171">
@@ -8996,7 +9026,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>170</v>
       </c>
       <c r="B172">
@@ -9031,7 +9061,7 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>171</v>
       </c>
       <c r="B173">
@@ -9066,7 +9096,7 @@
       </c>
     </row>
     <row r="174" hidden="1" spans="1:11">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>172</v>
       </c>
       <c r="B174">
@@ -9101,7 +9131,7 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>173</v>
       </c>
       <c r="B175">
@@ -9136,7 +9166,7 @@
       </c>
     </row>
     <row r="176" hidden="1" spans="1:11">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>174</v>
       </c>
       <c r="B176">
@@ -9171,7 +9201,7 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>175</v>
       </c>
       <c r="B177">
@@ -9206,13 +9236,12 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>176</v>
       </c>
       <c r="B178">
         <v>402</v>
       </c>
-      <c r="C178"/>
       <c r="D178" t="s">
         <v>563</v>
       </c>
@@ -9239,7 +9268,7 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="1">
+      <c r="A179" s="2">
         <v>177</v>
       </c>
       <c r="B179">
@@ -9274,7 +9303,7 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>178</v>
       </c>
       <c r="B180">
@@ -9309,7 +9338,7 @@
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="1">
+      <c r="A181" s="2">
         <v>179</v>
       </c>
       <c r="B181">
@@ -9344,7 +9373,7 @@
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>180</v>
       </c>
       <c r="B182">
@@ -9379,7 +9408,7 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>181</v>
       </c>
       <c r="B183">
@@ -9414,7 +9443,7 @@
       </c>
     </row>
     <row r="184" hidden="1" spans="1:11">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>182</v>
       </c>
       <c r="B184">
@@ -9449,7 +9478,7 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>183</v>
       </c>
       <c r="B185">
@@ -9484,7 +9513,7 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>184</v>
       </c>
       <c r="B186">
@@ -9519,7 +9548,7 @@
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>185</v>
       </c>
       <c r="B187">
@@ -9554,7 +9583,7 @@
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>186</v>
       </c>
       <c r="B188">
@@ -9589,7 +9618,7 @@
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>187</v>
       </c>
       <c r="B189">
@@ -9624,7 +9653,7 @@
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>188</v>
       </c>
       <c r="B190">
@@ -9659,7 +9688,7 @@
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>189</v>
       </c>
       <c r="B191">
@@ -9694,7 +9723,7 @@
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>190</v>
       </c>
       <c r="B192">
@@ -9729,7 +9758,7 @@
       </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>191</v>
       </c>
       <c r="B193">
@@ -9764,7 +9793,7 @@
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>192</v>
       </c>
       <c r="B194">
@@ -9799,7 +9828,7 @@
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>193</v>
       </c>
       <c r="B195">
@@ -9834,7 +9863,7 @@
       </c>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>194</v>
       </c>
       <c r="B196">
@@ -9869,7 +9898,7 @@
       </c>
     </row>
     <row r="197" hidden="1" spans="1:11">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>195</v>
       </c>
       <c r="B197">
@@ -9904,7 +9933,7 @@
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>196</v>
       </c>
       <c r="B198">
@@ -9939,7 +9968,7 @@
       </c>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>197</v>
       </c>
       <c r="B199">
@@ -9974,7 +10003,7 @@
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>198</v>
       </c>
       <c r="B200">
@@ -10009,7 +10038,7 @@
       </c>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>199</v>
       </c>
       <c r="B201">
@@ -10044,7 +10073,7 @@
       </c>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>200</v>
       </c>
       <c r="B202">
@@ -10079,7 +10108,7 @@
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>201</v>
       </c>
       <c r="B203">
@@ -10114,7 +10143,7 @@
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>202</v>
       </c>
       <c r="B204">
@@ -10149,7 +10178,7 @@
       </c>
     </row>
     <row r="205" hidden="1" spans="1:11">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>203</v>
       </c>
       <c r="B205">
@@ -10184,7 +10213,7 @@
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>204</v>
       </c>
       <c r="B206">
@@ -10219,7 +10248,7 @@
       </c>
     </row>
     <row r="207" hidden="1" spans="1:11">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>205</v>
       </c>
       <c r="B207">
@@ -10254,7 +10283,7 @@
       </c>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>206</v>
       </c>
       <c r="B208">
@@ -10289,7 +10318,7 @@
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>207</v>
       </c>
       <c r="B209">
@@ -10340,50 +10369,51 @@
   <sheetPr/>
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H174" sqref="H174"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -10418,7 +10448,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3">
@@ -10453,7 +10483,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>7</v>
       </c>
       <c r="B4">
@@ -10488,7 +10518,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>8</v>
       </c>
       <c r="B5">
@@ -10523,7 +10553,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>9</v>
       </c>
       <c r="B6">
@@ -10558,7 +10588,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>10</v>
       </c>
       <c r="B7">
@@ -10593,7 +10623,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>11</v>
       </c>
       <c r="B8">
@@ -10628,7 +10658,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
       <c r="B9">
@@ -10663,7 +10693,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>13</v>
       </c>
       <c r="B10">
@@ -10698,7 +10728,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
       <c r="B11">
@@ -10733,7 +10763,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>16</v>
       </c>
       <c r="B12">
@@ -10768,7 +10798,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>17</v>
       </c>
       <c r="B13">
@@ -10803,7 +10833,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>18</v>
       </c>
       <c r="B14">
@@ -10838,7 +10868,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>20</v>
       </c>
       <c r="B15">
@@ -10873,7 +10903,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>21</v>
       </c>
       <c r="B16">
@@ -10908,7 +10938,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>22</v>
       </c>
       <c r="B17">
@@ -10943,7 +10973,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>23</v>
       </c>
       <c r="B18">
@@ -10978,7 +11008,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>24</v>
       </c>
       <c r="B19">
@@ -11013,7 +11043,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>25</v>
       </c>
       <c r="B20">
@@ -11048,7 +11078,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>26</v>
       </c>
       <c r="B21">
@@ -11083,7 +11113,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>27</v>
       </c>
       <c r="B22">
@@ -11118,7 +11148,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>28</v>
       </c>
       <c r="B23">
@@ -11153,7 +11183,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>29</v>
       </c>
       <c r="B24">
@@ -11188,7 +11218,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>31</v>
       </c>
       <c r="B25">
@@ -11223,7 +11253,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>33</v>
       </c>
       <c r="B26">
@@ -11258,7 +11288,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>34</v>
       </c>
       <c r="B27">
@@ -11293,7 +11323,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>35</v>
       </c>
       <c r="B28">
@@ -11328,7 +11358,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>36</v>
       </c>
       <c r="B29">
@@ -11363,7 +11393,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>37</v>
       </c>
       <c r="B30">
@@ -11398,7 +11428,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>38</v>
       </c>
       <c r="B31">
@@ -11433,7 +11463,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>40</v>
       </c>
       <c r="B32">
@@ -11468,7 +11498,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>41</v>
       </c>
       <c r="B33">
@@ -11503,7 +11533,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>42</v>
       </c>
       <c r="B34">
@@ -11538,7 +11568,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>43</v>
       </c>
       <c r="B35">
@@ -11570,7 +11600,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>44</v>
       </c>
       <c r="B36">
@@ -11605,7 +11635,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>45</v>
       </c>
       <c r="B37">
@@ -11640,7 +11670,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>46</v>
       </c>
       <c r="B38">
@@ -11675,7 +11705,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>47</v>
       </c>
       <c r="B39">
@@ -11710,7 +11740,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>49</v>
       </c>
       <c r="B40">
@@ -11745,7 +11775,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>50</v>
       </c>
       <c r="B41">
@@ -11780,7 +11810,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>51</v>
       </c>
       <c r="B42">
@@ -11815,7 +11845,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>52</v>
       </c>
       <c r="B43">
@@ -11850,7 +11880,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>53</v>
       </c>
       <c r="B44">
@@ -11885,7 +11915,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>54</v>
       </c>
       <c r="B45">
@@ -11920,7 +11950,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>55</v>
       </c>
       <c r="B46">
@@ -11955,7 +11985,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>56</v>
       </c>
       <c r="B47">
@@ -11990,7 +12020,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>57</v>
       </c>
       <c r="B48">
@@ -12025,7 +12055,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>58</v>
       </c>
       <c r="B49">
@@ -12060,7 +12090,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>59</v>
       </c>
       <c r="B50">
@@ -12095,7 +12125,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>60</v>
       </c>
       <c r="B51">
@@ -12130,7 +12160,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>61</v>
       </c>
       <c r="B52">
@@ -12165,7 +12195,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>63</v>
       </c>
       <c r="B53">
@@ -12200,7 +12230,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>64</v>
       </c>
       <c r="B54">
@@ -12235,7 +12265,7 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>65</v>
       </c>
       <c r="B55">
@@ -12270,7 +12300,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>66</v>
       </c>
       <c r="B56">
@@ -12305,7 +12335,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>67</v>
       </c>
       <c r="B57">
@@ -12340,7 +12370,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>68</v>
       </c>
       <c r="B58">
@@ -12375,7 +12405,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>69</v>
       </c>
       <c r="B59">
@@ -12410,7 +12440,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>70</v>
       </c>
       <c r="B60">
@@ -12445,7 +12475,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>71</v>
       </c>
       <c r="B61">
@@ -12480,7 +12510,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>72</v>
       </c>
       <c r="B62">
@@ -12515,7 +12545,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>73</v>
       </c>
       <c r="B63">
@@ -12550,7 +12580,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>74</v>
       </c>
       <c r="B64">
@@ -12585,7 +12615,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>75</v>
       </c>
       <c r="B65">
@@ -12620,7 +12650,7 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>76</v>
       </c>
       <c r="B66">
@@ -12655,7 +12685,7 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>77</v>
       </c>
       <c r="B67">
@@ -12690,7 +12720,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>78</v>
       </c>
       <c r="B68">
@@ -12725,7 +12755,7 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>79</v>
       </c>
       <c r="B69">
@@ -12760,7 +12790,7 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>80</v>
       </c>
       <c r="B70">
@@ -12795,7 +12825,7 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>81</v>
       </c>
       <c r="B71">
@@ -12830,7 +12860,7 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>82</v>
       </c>
       <c r="B72">
@@ -12865,7 +12895,7 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>83</v>
       </c>
       <c r="B73">
@@ -12900,7 +12930,7 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>84</v>
       </c>
       <c r="B74">
@@ -12935,7 +12965,7 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>85</v>
       </c>
       <c r="B75">
@@ -12970,7 +13000,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>86</v>
       </c>
       <c r="B76">
@@ -13005,7 +13035,7 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>87</v>
       </c>
       <c r="B77">
@@ -13040,7 +13070,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>88</v>
       </c>
       <c r="B78">
@@ -13075,7 +13105,7 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>89</v>
       </c>
       <c r="B79">
@@ -13110,7 +13140,7 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>90</v>
       </c>
       <c r="B80">
@@ -13145,7 +13175,7 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>91</v>
       </c>
       <c r="B81">
@@ -13180,7 +13210,7 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>92</v>
       </c>
       <c r="B82">
@@ -13215,7 +13245,7 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>94</v>
       </c>
       <c r="B83">
@@ -13250,7 +13280,7 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>95</v>
       </c>
       <c r="B84">
@@ -13285,7 +13315,7 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>96</v>
       </c>
       <c r="B85">
@@ -13320,7 +13350,7 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>98</v>
       </c>
       <c r="B86">
@@ -13355,7 +13385,7 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>99</v>
       </c>
       <c r="B87">
@@ -13390,7 +13420,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>100</v>
       </c>
       <c r="B88">
@@ -13425,7 +13455,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>101</v>
       </c>
       <c r="B89">
@@ -13460,7 +13490,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>102</v>
       </c>
       <c r="B90">
@@ -13495,7 +13525,7 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>103</v>
       </c>
       <c r="B91">
@@ -13530,7 +13560,7 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>104</v>
       </c>
       <c r="B92">
@@ -13565,7 +13595,7 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>105</v>
       </c>
       <c r="B93">
@@ -13600,7 +13630,7 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>106</v>
       </c>
       <c r="B94">
@@ -13635,7 +13665,7 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>107</v>
       </c>
       <c r="B95">
@@ -13670,7 +13700,7 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>108</v>
       </c>
       <c r="B96">
@@ -13705,7 +13735,7 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>109</v>
       </c>
       <c r="B97">
@@ -13740,7 +13770,7 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>110</v>
       </c>
       <c r="B98">
@@ -13775,7 +13805,7 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>111</v>
       </c>
       <c r="B99">
@@ -13810,7 +13840,7 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>112</v>
       </c>
       <c r="B100">
@@ -13845,7 +13875,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>113</v>
       </c>
       <c r="B101">
@@ -13880,7 +13910,7 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>114</v>
       </c>
       <c r="B102">
@@ -13915,7 +13945,7 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>115</v>
       </c>
       <c r="B103">
@@ -13950,7 +13980,7 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>116</v>
       </c>
       <c r="B104">
@@ -13985,7 +14015,7 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>124</v>
       </c>
       <c r="B105">
@@ -14020,7 +14050,7 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>125</v>
       </c>
       <c r="B106">
@@ -14055,7 +14085,7 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>126</v>
       </c>
       <c r="B107">
@@ -14090,7 +14120,7 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>127</v>
       </c>
       <c r="B108">
@@ -14125,7 +14155,7 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>128</v>
       </c>
       <c r="B109">
@@ -14160,7 +14190,7 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>129</v>
       </c>
       <c r="B110">
@@ -14195,7 +14225,7 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>131</v>
       </c>
       <c r="B111">
@@ -14230,7 +14260,7 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>132</v>
       </c>
       <c r="B112">
@@ -14265,7 +14295,7 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>133</v>
       </c>
       <c r="B113">
@@ -14300,7 +14330,7 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>134</v>
       </c>
       <c r="B114">
@@ -14335,7 +14365,7 @@
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>135</v>
       </c>
       <c r="B115">
@@ -14370,7 +14400,7 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>136</v>
       </c>
       <c r="B116">
@@ -14405,7 +14435,7 @@
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>137</v>
       </c>
       <c r="B117">
@@ -14440,7 +14470,7 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>138</v>
       </c>
       <c r="B118">
@@ -14475,7 +14505,7 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>139</v>
       </c>
       <c r="B119">
@@ -14510,7 +14540,7 @@
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>140</v>
       </c>
       <c r="B120">
@@ -14545,7 +14575,7 @@
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>141</v>
       </c>
       <c r="B121">
@@ -14580,7 +14610,7 @@
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>142</v>
       </c>
       <c r="B122">
@@ -14615,7 +14645,7 @@
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>143</v>
       </c>
       <c r="B123">
@@ -14650,7 +14680,7 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>144</v>
       </c>
       <c r="B124">
@@ -14685,7 +14715,7 @@
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>145</v>
       </c>
       <c r="B125">
@@ -14720,7 +14750,7 @@
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>146</v>
       </c>
       <c r="B126">
@@ -14755,7 +14785,7 @@
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>147</v>
       </c>
       <c r="B127">
@@ -14790,7 +14820,7 @@
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>148</v>
       </c>
       <c r="B128">
@@ -14825,7 +14855,7 @@
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>150</v>
       </c>
       <c r="B129">
@@ -14860,7 +14890,7 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>151</v>
       </c>
       <c r="B130">
@@ -14895,7 +14925,7 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>152</v>
       </c>
       <c r="B131">
@@ -14930,7 +14960,7 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>153</v>
       </c>
       <c r="B132">
@@ -14965,7 +14995,7 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>154</v>
       </c>
       <c r="B133">
@@ -15000,7 +15030,7 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>155</v>
       </c>
       <c r="B134">
@@ -15035,7 +15065,7 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>156</v>
       </c>
       <c r="B135">
@@ -15070,7 +15100,7 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>157</v>
       </c>
       <c r="B136">
@@ -15105,7 +15135,7 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>160</v>
       </c>
       <c r="B137">
@@ -15140,7 +15170,7 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>161</v>
       </c>
       <c r="B138">
@@ -15175,7 +15205,7 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>162</v>
       </c>
       <c r="B139">
@@ -15210,7 +15240,7 @@
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>163</v>
       </c>
       <c r="B140">
@@ -15245,7 +15275,7 @@
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>164</v>
       </c>
       <c r="B141">
@@ -15280,7 +15310,7 @@
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>165</v>
       </c>
       <c r="B142">
@@ -15315,7 +15345,7 @@
       </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>166</v>
       </c>
       <c r="B143">
@@ -15350,7 +15380,7 @@
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>167</v>
       </c>
       <c r="B144">
@@ -15385,7 +15415,7 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>168</v>
       </c>
       <c r="B145">
@@ -15420,7 +15450,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>169</v>
       </c>
       <c r="B146">
@@ -15455,7 +15485,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>170</v>
       </c>
       <c r="B147">
@@ -15490,7 +15520,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>171</v>
       </c>
       <c r="B148">
@@ -15525,7 +15555,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>173</v>
       </c>
       <c r="B149">
@@ -15560,7 +15590,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>175</v>
       </c>
       <c r="B150">
@@ -15595,7 +15625,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>176</v>
       </c>
       <c r="B151">
@@ -15627,7 +15657,7 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>177</v>
       </c>
       <c r="B152">
@@ -15662,7 +15692,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>178</v>
       </c>
       <c r="B153">
@@ -15697,7 +15727,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>179</v>
       </c>
       <c r="B154">
@@ -15732,7 +15762,7 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>180</v>
       </c>
       <c r="B155">
@@ -15767,7 +15797,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>181</v>
       </c>
       <c r="B156">
@@ -15802,7 +15832,7 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>183</v>
       </c>
       <c r="B157">
@@ -15837,7 +15867,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>184</v>
       </c>
       <c r="B158">
@@ -15872,7 +15902,7 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>185</v>
       </c>
       <c r="B159">
@@ -15907,7 +15937,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>186</v>
       </c>
       <c r="B160">
@@ -15942,7 +15972,7 @@
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>187</v>
       </c>
       <c r="B161">
@@ -15977,7 +16007,7 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>188</v>
       </c>
       <c r="B162">
@@ -16012,7 +16042,7 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>189</v>
       </c>
       <c r="B163">
@@ -16047,7 +16077,7 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>190</v>
       </c>
       <c r="B164">
@@ -16082,7 +16112,7 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>191</v>
       </c>
       <c r="B165">
@@ -16117,7 +16147,7 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>192</v>
       </c>
       <c r="B166">
@@ -16152,7 +16182,7 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="1">
+      <c r="A167" s="2">
         <v>193</v>
       </c>
       <c r="B167">
@@ -16187,7 +16217,7 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>194</v>
       </c>
       <c r="B168">
@@ -16222,7 +16252,7 @@
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>196</v>
       </c>
       <c r="B169">
@@ -16257,7 +16287,7 @@
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>197</v>
       </c>
       <c r="B170">
@@ -16292,7 +16322,7 @@
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>198</v>
       </c>
       <c r="B171">
@@ -16327,7 +16357,7 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>199</v>
       </c>
       <c r="B172">
@@ -16362,7 +16392,7 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>200</v>
       </c>
       <c r="B173">
@@ -16397,7 +16427,7 @@
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>201</v>
       </c>
       <c r="B174">
@@ -16432,7 +16462,7 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>202</v>
       </c>
       <c r="B175">
@@ -16467,7 +16497,7 @@
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>204</v>
       </c>
       <c r="B176">
@@ -16502,7 +16532,7 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>206</v>
       </c>
       <c r="B177">
@@ -16537,7 +16567,7 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>207</v>
       </c>
       <c r="B178">
@@ -16582,46 +16612,50 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1048399"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="47.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -16642,7 +16676,7 @@
       <c r="G2">
         <v>2400</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
@@ -16656,7 +16690,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3">
@@ -16677,7 +16711,7 @@
       <c r="G3">
         <v>1000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
@@ -16691,7 +16725,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4">
@@ -16712,7 +16746,7 @@
       <c r="G4">
         <v>1000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
@@ -16726,7 +16760,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5">
@@ -16747,7 +16781,7 @@
       <c r="G5">
         <v>1000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I5" t="s">
@@ -16761,7 +16795,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6">
@@ -16782,7 +16816,7 @@
       <c r="G6">
         <v>1000</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I6" t="s">
@@ -16796,28 +16830,28 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>470</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>34201060</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>2000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I7" t="s">
@@ -16831,28 +16865,28 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>215</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>34203118</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G8">
-        <v>3000</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I8" t="s">
@@ -16866,28 +16900,28 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>34204612</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>109</v>
       </c>
       <c r="I9" t="s">
@@ -16901,28 +16935,28 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>32</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>34201093</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G10">
-        <v>3000</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="I10" t="s">
@@ -16936,28 +16970,28 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>39</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>185</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>34201682</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G11">
-        <v>3000</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>139</v>
       </c>
       <c r="I11" t="s">
@@ -16971,28 +17005,28 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>48</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>34202525</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G12">
-        <v>3000</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>166</v>
       </c>
       <c r="I12" t="s">
@@ -17006,28 +17040,28 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>62</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>255</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>34201067</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G13">
-        <v>3000</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I13" t="s">
@@ -17041,28 +17075,28 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>93</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>34201046</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G14">
-        <v>3000</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>304</v>
       </c>
       <c r="I14" t="s">
@@ -17076,28 +17110,28 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>97</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>190</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>34202285</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G15">
-        <v>3000</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>318</v>
       </c>
       <c r="I15" t="s">
@@ -17111,28 +17145,28 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>117</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>104</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>34201449</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G16">
-        <v>3000</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>378</v>
       </c>
       <c r="I16" t="s">
@@ -17146,28 +17180,28 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>118</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>34205358</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="G17">
-        <v>3000</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>381</v>
       </c>
       <c r="I17" t="s">
@@ -17181,28 +17215,28 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>119</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>104</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>34201441</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G18">
-        <v>3000</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>384</v>
       </c>
       <c r="I18" t="s">
@@ -17216,28 +17250,28 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>120</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>104</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G19">
-        <v>3000</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>388</v>
       </c>
       <c r="I19" t="s">
@@ -17251,28 +17285,28 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>121</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>104</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>34202840</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G20">
-        <v>3000</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I20" t="s">
@@ -17286,28 +17320,28 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>122</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="G21">
-        <v>3000</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>395</v>
       </c>
       <c r="I21" t="s">
@@ -17320,64 +17354,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
+    <row r="22" s="1" customFormat="1" spans="1:11">
+      <c r="A22" s="5">
         <v>123</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>535</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>34205946</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <v>5000</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>130</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>330</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G23">
-        <v>3000</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>420</v>
       </c>
       <c r="I23" t="s">
@@ -17391,28 +17425,28 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>149</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>561</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>34205857</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G24">
-        <v>3000</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>479</v>
       </c>
       <c r="I24" t="s">
@@ -17426,28 +17460,28 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>158</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>267</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>34201509</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G25">
-        <v>3000</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>506</v>
       </c>
       <c r="I25" t="s">
@@ -17461,28 +17495,28 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>159</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>564</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>10699</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G26">
-        <v>3000</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>509</v>
       </c>
       <c r="I26" t="s">
@@ -17496,28 +17530,28 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>172</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>239</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>552</v>
       </c>
       <c r="I27">
@@ -17531,28 +17565,28 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>174</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>501</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>34203515</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>4000</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>558</v>
       </c>
       <c r="I28">
@@ -17566,28 +17600,28 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>182</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>429</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>34203935</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>4000</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>584</v>
       </c>
       <c r="I29" t="s">
@@ -17601,28 +17635,28 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>195</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>546</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>34205903</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>4000</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>622</v>
       </c>
       <c r="I30" t="s">
@@ -17636,28 +17670,28 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>203</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>145</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>5000</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>647</v>
       </c>
       <c r="I31" t="s">
@@ -17671,28 +17705,28 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>205</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>532</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>34205859</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>654</v>
       </c>
       <c r="I32" t="s">
@@ -17706,6 +17740,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C32">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
